--- a/posts/2021-09-04-fetarps/Fetkovich - Arps Decline Type curve.xlsx
+++ b/posts/2021-09-04-fetarps/Fetkovich - Arps Decline Type curve.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CDY\Ejercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chato Solutions\Distill_page\ChatoSolutions_distill\_posts\2021-09-04-fetarps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8D43BA-AF23-48D0-91FE-D3279ED7F6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA02581E-5900-4650-8A16-A27513D92BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -278,14 +278,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39215,22 +39215,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>73269</xdr:rowOff>
+      <xdr:colOff>39688</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>138906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>600808</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>54219</xdr:rowOff>
+      <xdr:colOff>458788</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>121839</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
+        <xdr:cNvPr id="9" name="Imagen 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506263A1-924C-43D2-B528-FB0FB3EA9290}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B942BD1E-05CF-4B63-8112-FDA36ED324F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -39253,8 +39253,69 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11459308" y="5407269"/>
-          <a:ext cx="1333500" cy="552450"/>
+          <a:off x="11499454" y="5605859"/>
+          <a:ext cx="1183084" cy="736996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>49610</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>109141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>563959</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D85D02-43F3-4E90-930D-CADAF8305053}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13126641" y="5576094"/>
+          <a:ext cx="1278334" cy="708421"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -39276,43 +39337,60 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>21982</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>21980</xdr:rowOff>
+      <xdr:colOff>49609</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>148827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>40351</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>59956</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>716359</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5">
+        <xdr:cNvPr id="11" name="Imagen 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCDF1603-3F6A-47F7-8B14-8739D6003E23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B7D584-ECB4-427F-BD10-CF8513AD8FB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11451982" y="6308480"/>
-          <a:ext cx="5447619" cy="990476"/>
+          <a:off x="11509375" y="6746874"/>
+          <a:ext cx="3811984" cy="660797"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -39320,66 +39398,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>58616</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>131884</xdr:rowOff>
+      <xdr:colOff>29765</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>601080</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>74622</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>753665</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>13890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6">
+        <xdr:cNvPr id="12" name="Imagen 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63359132-BE10-4020-B607-A4FC18FF6714}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11488616" y="7751884"/>
-          <a:ext cx="3685714" cy="895238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>90932</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>696057</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8B57E2-9C60-4EFF-B268-DE73F8C1640B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C878FE99-A716-459A-A914-DA3F8464DC47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -39402,8 +39436,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11503269" y="8853932"/>
-          <a:ext cx="2242038" cy="890876"/>
+          <a:off x="11489531" y="7977187"/>
+          <a:ext cx="4633118" cy="896937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -39424,23 +39458,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>109140</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>89297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>299641</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165497</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8">
+        <xdr:cNvPr id="13" name="Imagen 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B942BD1E-05CF-4B63-8112-FDA36ED324F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89776D7B-6233-4A35-B802-DEC962727E76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -39463,69 +39497,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13811250" y="5334000"/>
-          <a:ext cx="1181100" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D85D02-43F3-4E90-930D-CADAF8305053}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16097250" y="5334000"/>
-          <a:ext cx="1276350" cy="714375"/>
+          <a:off x="11568906" y="9326563"/>
+          <a:ext cx="954485" cy="641747"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -39896,8 +39869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13300445-A412-4D57-A2BD-5583B66634A0}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39912,10 +39885,10 @@
       <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="10"/>
+      <c r="Q1" s="11"/>
       <c r="R1" s="3" t="s">
         <v>45</v>
       </c>
@@ -39930,14 +39903,14 @@
       <c r="B2">
         <v>605.79999999999995</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="11">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="9">
         <v>10</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="10">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
@@ -39948,14 +39921,14 @@
       <c r="B3">
         <v>565.98</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="11">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="9">
         <v>100</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="10">
         <v>0.39</v>
       </c>
     </row>
@@ -39982,11 +39955,11 @@
       <c r="B6">
         <v>372.83</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -40142,11 +40115,11 @@
       </c>
     </row>
     <row r="17" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
     </row>
     <row r="18" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P18" s="5" t="s">
@@ -40196,8 +40169,8 @@
         <v>41</v>
       </c>
       <c r="Q22" s="5">
-        <f>SQRT((R3/S3)*(0.00633*Q21)/(Q9*Q14*Q12*0.5*(Q20^2-1)*(LN(Q20)-0.75)))</f>
-        <v>12.927869864925212</v>
+        <f>SQRT((R3/S3)*(0.00633*Q21)/(Q9*Q14*Q12*0.5*(Q20^2-1)*(LN(Q20)-0.5)))</f>
+        <v>12.445246673403251</v>
       </c>
       <c r="R22" s="5" t="s">
         <v>26</v>
@@ -40209,7 +40182,7 @@
       </c>
       <c r="Q23" s="5">
         <f>LN(Q13/Q22)</f>
-        <v>-3.9456797967066612</v>
+        <v>-3.9076331178280448</v>
       </c>
       <c r="R23" s="5"/>
     </row>
